--- a/files/Poznamky.xlsx
+++ b/files/Poznamky.xlsx
@@ -5,17 +5,100 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\intranet\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petbla\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Blažek Petr</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Blažek Petr:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+(oddělen od názvu </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>pomlčkou</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Blažek Petr:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+[ano / ne]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39,63 +122,6 @@
     <t xml:space="preserve">Aktualitzace pasportu </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Text
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(oddělen od názvu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pomlčkou</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Připomenutí
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ano / ne]</t>
-    </r>
-  </si>
-  <si>
     <t>Odpovídá</t>
   </si>
   <si>
@@ -107,12 +133,31 @@
   <si>
     <t>1/2019</t>
   </si>
+  <si>
+    <r>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Připomenutí</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +318,21 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="33">
@@ -964,12 +1024,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,10 +1048,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -1000,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,23 +1068,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
-      <c r="E2" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43592</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6">
         <v>43750</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,5 +2860,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>